--- a/result.xlsx
+++ b/result.xlsx
@@ -389,27 +389,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.allesoverseks.be', 'https://www.gezondheidsnet.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'allesoverseks.be', 'https://www.allesoverseks.be', 'https://www.gezondheidsnet.nl']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://www.knaw.nl', 'https://www.lne.be']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://www.knaw.nl', 'LNE.be', 'https://www.lne.be', 'www.klimaat.be']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['https://www.ad.nl', 'https://www.ad.nl', 'https://www.nrc.nl', 'https://www.trouw.nl', 'https://www.omroepbrabant.nl', 'https://www.rtlnieuws.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'https://www.ed.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.ad.nl', 'https://www.nrc.nl', 'https://www.trouw.nl', 'https://www.omroepbrabant.nl', 'https://www.rtlnieuws.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'houvanarnhem.nl', 'https://www.ed.nl']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['https://www.nvkp.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'https://www.thuisvaccinatie.nl', 'https://www.nrc.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.nrc.nl']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.parool.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'https://www.amerika.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl', 'https://www.trouw.nl']</t>
+          <t>['https://nl.wikipedia.org', 'politie.nl', 'https://www.politie.nl', 'https://www.parool.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'Amerika.nl', 'https://www.amerika.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl', 'ind.nl', 'https://www.trouw.nl']</t>
         </is>
       </c>
     </row>
@@ -419,27 +419,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nu.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl', 'https://www.destentor.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nu.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl', 'https://www.destentor.nl']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://dekennisvannu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://dekennisvannu.nl']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'politie.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://decorrespondent.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -449,27 +449,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.gezondheidsplein.nl', 'https://www.trouw.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'https://www.ad.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.gezondheidsplein.nl', 'https://www.trouw.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'AD.nl', 'https://www.ad.nl']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://milieudefensie.nl']</t>
+          <t>['https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://milieudefensie.nl']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl', 'https://www.destentor.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl', 'https://www.destentor.nl']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['https://www.nvkp.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.volkskrant.nl', 'https://www.thuisvaccinatie.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://mens-en-gezondheid.infonu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.volkskrant.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl', 'https://mens-en-gezondheid.infonu.nl']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.amnesty.nl', 'https://europadecentraal.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org', 'politie.nl', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.amnesty.nl', 'https://europadecentraal.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -479,27 +479,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['https://t.co/Mx5nfk960i"', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nu.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nu.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl', 'https://www.nrc.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl', 'https://www.nrc.nl']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://www.rijksoverheid.nl', 'https://decorrespondent.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'politie.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://decorrespondent.nl', 'https://jalta.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -509,27 +509,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.allesoverseks.be', 'https://www.allesoverseks.be']</t>
+          <t>['(0.43', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', '17.03.2015', 'https://www.trouw.nl', '30.11.2014', 'https://fiom.nl', 'https://www.telegraaf.nl', '8.09.2016', 'allesoverseks.be', 'https://www.allesoverseks.be', 'allesoverseks.be', 'https://www.allesoverseks.be']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://www.lne.be']</t>
+          <t>['https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'LNE.be', 'https://www.lne.be', 'www.klimaat.be']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl', 'https://joop.bnnvara.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl', 'https://joop.bnnvara.nl']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['https://www.nvkp.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.umcutrecht.nl', 'https://mens-en-gezondheid.infonu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.umcutrecht.nl', 'https://mens-en-gezondheid.infonu.nl']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://europadecentraal.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org', 'politie.nl', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://europadecentraal.nl', 'https://decorrespondent.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -539,27 +539,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['https://t.co/Mx5nfk960i"', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'politie.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['https://t.co/Mx5nfk960i"', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.nieuwetijds-kindercoach.nl', 'https://www.rivm.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.nieuwetijds-kindercoach.nl', 'https://www.rivm.nl']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'politie.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -599,27 +599,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
+          <t>['https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['https://t.co/Mx5nfk960i"', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://dekennisvannu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://dekennisvannu.nl']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'politie.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['https://www.google.nl/search?ei=S_LoXfTZL8SSsAf1vpvYDg&amp;q=Abortus+tot+hoeveel+weken%3F&amp;oq=Abortus+tot+hoeveel+weken%3F&amp;gs_l=psy-ab.3..0l3j0i22i30l7.28732.32974..33640...3.2..0.92.1544.29......0....1..gws-wiz.......0i71j0i67j0i131j0i131i67j0i67i70i255j0i10j0i13j0i22i10i30.yrBHJhxg8TA&amp;ved=0ahUKEwi0q5PZu57mAhVECewKHXXfBusQ4dUDCAs&amp;uact=5#spf=1575898395218']</t>
+          <t>['https://www.google.nl/search?ei=S_LoXfTZL8SSsAf1vpvYDg&amp;q=Abortus+tot+hoeveel+weken%3F&amp;oq=Abortus+tot+hoeveel+weken%3F&amp;gs_l=psy-ab.3', '0l3j0i22i30l7.28732.32974', '0.92.1544.29', '.0i71j0i67j0i131j0i131i67j0i67i70i255j0i10j0i13j0i22i10i30.yrBHJhxg8TA&amp;ved=0ahUKEwi0q5PZu57mAhVECewKHXXfBusQ4dUDCAs&amp;uact=5#spf=1575898395218']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['https://www.google.nl/search?ei=bvLoXc35J4ackgXe5qfYAg&amp;q=Oorzaken+klimaatverandering&amp;oq=Oorzaken+klimaatverandering&amp;gs_l=psy-ab.3..0.14644.17724..17907...0.1..0.70.1386.27......0....1..gws-wiz.......0i71j0i131j0i131i67j0i67j0i22i30.QMwZNjd21o8&amp;ved=0ahUKEwjN6OPpu57mAhUGjqQKHV7zCSsQ4dUDCAs&amp;uact=5#spf=1575898535077']</t>
+          <t>['https://www.google.nl/search?ei=bvLoXc35J4ackgXe5qfYAg&amp;q=Oorzaken+klimaatverandering&amp;oq=Oorzaken+klimaatverandering&amp;gs_l=psy-ab.3', '0.14644.17724', '0.70.1386.27', '.0i71j0i131j0i131i67j0i67j0i22i30.QMwZNjd21o8&amp;ved=0ahUKEwjN6OPpu57mAhUGjqQKHV7zCSsQ4dUDCAs&amp;uact=5#spf=1575898535077']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['https://www.google.nl/search?ei=mPLoXe7zGoTikgXXsZawBg&amp;q=Zwarte+piet+of+roetveegpiet%3F&amp;oq=Zwarte+piet+of+roetveegpiet%3F&amp;gs_l=psy-ab.3..0i22i30j0i22i10i30.1677.1677..1948...0.0..0.60.149.3......0....1..gws-wiz.......0.ArHR0tPP3AQ&amp;ved=0ahUKEwjun9r9u57mAhUEsaQKHdeYBWYQ4dUDCAs&amp;uact=5#spf=1575898559244']</t>
+          <t>['https://www.google.nl/search?ei=mPLoXe7zGoTikgXXsZawBg&amp;q=Zwarte+piet+of+roetveegpiet%3F&amp;oq=Zwarte+piet+of+roetveegpiet%3F&amp;gs_l=psy-ab.3', '0i22i30j0i22i10i30.1677.1677', '0.60.149.3', '.0.ArHR0tPP3AQ&amp;ved=0ahUKEwjun9r9u57mAhUEsaQKHdeYBWYQ4dUDCAs&amp;uact=5#spf=1575898559244']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['https://www.google.nl/search?ei=m_LoXcGGBoXasAeT5YTQAg&amp;q=Gevaren+vaccinaties&amp;oq=Gevaren+vaccinaties&amp;gs_l=psy-ab.3..0j0i22i30.19170.21054..21146...0.0..0.72.1018.20......0....1..gws-wiz.......0i30j0i131i67j0i131j0i67j0i10.H4TU48jle6s&amp;ved=0ahUKEwiBwPz-u57mAhUFLewKHZMyASoQ4dUDCAs&amp;uact=5#spf=1575898600570']</t>
+          <t>['https://www.google.nl/search?ei=m_LoXcGGBoXasAeT5YTQAg&amp;q=Gevaren+vaccinaties&amp;oq=Gevaren+vaccinaties&amp;gs_l=psy-ab.3', '0j0i22i30.19170.21054', '0.72.1018.20', '.0i30j0i131i67j0i131j0i67j0i10.H4TU48jle6s&amp;ved=0ahUKEwiBwPz-u57mAhUFLewKHZMyASoQ4dUDCAs&amp;uact=5#spf=1575898600570']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['https://www.google.nl/search?ei=y_LoXfe4JInasAfh5YTgCw&amp;q=Gevolgen+illegale+immigratie&amp;oq=Gevolgen+illegale+immigratie&amp;gs_l=psy-ab.3..0i71l8.0.0..8338...0.2..0.0.0.......0......gws-wiz.DYsr3fnwVgM&amp;ved=0ahUKEwi3yoyWvJ7mAhUJLewKHeEyAbwQ4dUDCAs&amp;uact=5#spf=1575898614970']</t>
+          <t>['https://www.google.nl/search?ei=y_LoXfe4JInasAfh5YTgCw&amp;q=Gevolgen+illegale+immigratie&amp;oq=Gevolgen+illegale+immigratie&amp;gs_l=psy-ab.3', '0i71l8.0.0', '0.0.0', 'gws-wiz.DYsr3fnwVgM&amp;ved=0ahUKEwi3yoyWvJ7mAhUJLewKHeEyAbwQ4dUDCAs&amp;uact=5#spf=1575898614970']</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['vaccin.een']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -689,27 +689,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
     </row>
@@ -719,27 +719,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl/', 'https://www.rijksoverheid.nl/www.rijksoverheid.nl', 'https://www.rijksoverheid.nl/', 'https://www.rijksoverheid.nl/www.rijksoverheid.nl', 'https://www.bloemenhove.nl/', 'https://www.bloemenhove.nl/www.bloemenhove.nl', 'https://www.bloemenhove.nl/', 'https://www.bloemenhove.nl/www.bloemenhove.nl', 'https://www.thuisarts.nl/', 'https://www.thuisarts.nl/www.thuisarts.nl', 'https://www.trouw.nl/', 'https://www.trouw.nl/www.trouw.nl', 'https://www.gezondheidsplein.nl/', 'https://www.gezondheidsplein.nl/www.gezondheidsplein.nl', 'https://fiom.nl/', 'https://fiom.nl/fiom.nl', 'https://www.telegraaf.nl/', 'https://www.telegraaf.nl/www.telegraaf.nl', 'https://www.gezondheidsnet.nl/', 'https://www.gezondheidsnet.nl/www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl/', 'https://www.schreeuwomleven.nl/www.schreeuwomleven.nl']</t>
+          <t>['https://www.rijksoverheid.nl/', 'https://www.rijksoverheid.nl/www.rijksoverheid.nl', 'https://www.bloemenhove.nl/', 'https://www.bloemenhove.nl/www.bloemenhove.nl', 'https://www.bloemenhove.nl/', 'https://www.bloemenhove.nl/www.bloemenhove.nl', 'https://www.thuisarts.nl/', 'https://www.thuisarts.nl/www.thuisarts.nl', 'https://www.trouw.nl/', 'https://www.trouw.nl/www.trouw.nl', 'https://www.gezondheidsplein.nl/', 'https://www.gezondheidsplein.nl/www.gezondheidsplein.nl', 'https://fiom.nl/', 'https://fiom.nl/fiom.nl', 'https://www.telegraaf.nl/', 'https://www.telegraaf.nl/www.telegraaf.nl', 'https://www.gezondheidsnet.nl/', 'https://www.gezondheidsnet.nl/www.gezondheidsnet.nl', 'https://www.schreeuwomleven.nl/', 'https://www.schreeuwomleven.nl/www.schreeuwomleven.nl']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl/', 'https://www.ce.nl/www.ce.nl', 'https://www.rijksoverheid.nl/', 'https://www.rijksoverheid.nl/www.rijksoverheid.nl', 'https://www.wur.nl/', 'https://www.wur.nl/www.wur.nl', 'https://www.ce.nl/', 'https://www.ce.nl/www.ce.nl', 'https://ec.europa.eu/', 'https://ec.europa.eu/ec.europa.eu', 'https://www.klimaat.be/', 'https://www.klimaat.be/www.klimaat.be', 'https://www.hier.nu/', 'https://www.hier.nu/www.hier.nu', 'https://www.urgenda.nl/', 'https://www.urgenda.nl/www.urgenda.nl', 'https://www.climategate.nl/', 'https://www.climategate.nl/www.climategate.nl', 'https://milieudefensie.nl/', 'https://milieudefensie.nl/milieudefensie.nl', 'https://www.knaw.nl/', 'https://www.knaw.nl/www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl/', 'https://www.rijksoverheid.nl/www.rijksoverheid.nl', 'https://www.wur.nl/', 'https://www.wur.nl/www.wur.nl', 'https://www.ce.nl/', 'https://www.ce.nl/www.ce.nl', 'https://ec.europa.eu/', 'https://ec.europa.eu/ec.europa.eu', 'https://www.klimaat.be/', 'https://www.klimaat.be/www.klimaat.be', 'Klimaat.be', 'https://www.hier.nu/', 'https://www.hier.nu/www.hier.nu', 'https://www.urgenda.nl/', 'https://www.urgenda.nl/www.urgenda.nl', 'https://www.climategate.nl/', 'https://www.climategate.nl/www.climategate.nl', 'https://milieudefensie.nl/', 'https://milieudefensie.nl/milieudefensie.nl', 'https://www.knaw.nl/', 'https://www.knaw.nl/www.knaw.nl']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['https://www.ad.nl/', 'https://www.ad.nl/www.ad.nl', 'https://www.volkskrant.nl/', 'https://www.volkskrant.nl/www.volkskrant.nl', 'https://www.trouw.nl/', 'https://www.trouw.nl/www.trouw.nl', 'https://www.nu.nl/', 'https://www.nu.nl/www.nu.nl', 'https://www.lc.nl/', 'https://www.lc.nl/www.lc.nl', 'https://nos.nl/', 'https://nos.nl/nos.nl', 'https://eenvandaag.avrotros.nl/', 'https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl', 'https://www.nrc.nl/', 'https://www.nrc.nl/www.nrc.nl', 'https://www.omroepbrabant.nl/', 'https://www.omroepbrabant.nl/www.omroepbrabant.nl']</t>
+          <t>['https://www.ad.nl/', 'https://www.ad.nl/www.ad.nl', 'AD.nl', 'https://www.volkskrant.nl/', 'https://www.volkskrant.nl/www.volkskrant.nl', 'https://www.trouw.nl/', 'https://www.trouw.nl/www.trouw.nl', 'https://www.nu.nl/', 'https://www.nu.nl/www.nu.nl', 'https://www.lc.nl/', 'https://www.lc.nl/www.lc.nl', 'https://nos.nl/', 'https://nos.nl/nos.nl', 'https://eenvandaag.avrotros.nl/', 'https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl', 'https://www.nrc.nl/', 'https://www.nrc.nl/www.nrc.nl', 'https://www.omroepbrabant.nl/', 'https://www.omroepbrabant.nl/www.omroepbrabant.nl']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl/', 'https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl/', 'https://www.nvkp.nl/www.nvkp.nl', 'https://www.wanttoknow.nl/', 'https://www.wanttoknow.nl/www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl/', 'https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl/', 'https://www.umcutrecht.nl/www.umcutrecht.nl', 'https://www.thuisvaccinatie.nl/', 'https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl', 'https://www.volkskrant.nl/', 'https://www.volkskrant.nl/www.volkskrant.nl', 'https://www.scientias.nl/', 'https://www.scientias.nl/www.scientias.nl', 'https://dekennisvannu.nl/', 'https://dekennisvannu.nl/dekennisvannu.nl', 'https://www.nrc.nl/', 'https://www.nrc.nl/www.nrc.nl']</t>
+          <t>['https://rijksvaccinatieprogramma.nl/', 'https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl', 'Rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl/', 'https://www.nvkp.nl/www.nvkp.nl', 'https://www.wanttoknow.nl/', 'https://www.wanttoknow.nl/www.wanttoknow.nl', 'WantToKnow.nl', 'https://stichtingvaccinvrij.nl/', 'https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl/', 'https://www.umcutrecht.nl/www.umcutrecht.nl', 'https://www.thuisvaccinatie.nl/', 'https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl', 'Thuisvaccinatie.nl', 'https://www.volkskrant.nl/', 'https://www.volkskrant.nl/www.volkskrant.nl', 'https://www.scientias.nl/', 'https://www.scientias.nl/www.scientias.nl', 'https://dekennisvannu.nl/', 'https://dekennisvannu.nl/dekennisvannu.nl', 'https://www.nrc.nl/', 'https://www.nrc.nl/www.nrc.nl']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org/', 'https://nl.wikipedia.org/nl.wikipedia.org', 'https://www.volkskrant.nl/', 'https://www.volkskrant.nl/www.volkskrant.nl', 'https://www.politie.nl/', 'https://www.politie.nl/www.politie.nl', 'https://europadecentraal.nl/', 'https://europadecentraal.nl/europadecentraal.nl', 'https://www.amnesty.nl/', 'https://www.amnesty.nl/www.amnesty.nl', 'https://decorrespondent.nl/', 'https://decorrespondent.nl/decorrespondent.nl', 'https://www.rijksoverheid.nl/', 'https://www.rijksoverheid.nl/www.rijksoverheid.nl', 'https://jalta.nl/', 'https://jalta.nl/jalta.nl', 'https://www.socialevraagstukken.nl/', 'https://www.socialevraagstukken.nl/www.socialevraagstukken.nl', 'https://www.europa-nu.nl/', 'https://www.europa-nu.nl/www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org/', 'https://nl.wikipedia.org/nl.wikipedia.org', 'https://www.volkskrant.nl/', 'https://www.volkskrant.nl/www.volkskrant.nl', 'https://www.politie.nl/', 'https://www.politie.nl/www.politie.nl', 'politie.nl', 'https://europadecentraal.nl/', 'https://europadecentraal.nl/europadecentraal.nl', 'https://www.amnesty.nl/', 'https://www.amnesty.nl/www.amnesty.nl', 'https://decorrespondent.nl/', 'https://decorrespondent.nl/decorrespondent.nl', 'https://www.rijksoverheid.nl/', 'https://www.rijksoverheid.nl/www.rijksoverheid.nl', 'Rijksoverheid.nl', 'https://jalta.nl/', 'https://jalta.nl/jalta.nl', 'https://www.socialevraagstukken.nl/', 'https://www.socialevraagstukken.nl/www.socialevraagstukken.nl', 'https://www.europa-nu.nl/', 'https://www.europa-nu.nl/www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -749,27 +749,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.schreeuwomleven.nl', 'https://www.gezondheidsnet.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.schreeuwomleven.nl', 'https://www.gezondheidsnet.nl']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['https://t.co/Mx5nfk960i"', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://dekennisvannu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://dekennisvannu.nl']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl']</t>
+          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'politie.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://decorrespondent.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl']</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'https://www.gezondheidsnet.nl']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.knaw.nl']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['https://t.co/Mx5nfk960i"', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.umcutrecht.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['https://www.google.nl/search?ei=y_LoXfe4JInasAfh5YTgCw&amp;q=Gevolgen+illegale+immigratie&amp;oq=Gevolgen+illegale+immigratie&amp;gs_l=psy-ab.3..0i71l8.0.0..8338...0.2..0.0.0.......0......gws-wiz.DYsr3fnwVgM&amp;ved=0ahUKEwi3yoyWvJ7mAhUJLewKHeEyAbwQ4dUDCAs&amp;uact=5', 'https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://www.rijksoverheid.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'politie.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['RIVM.nl']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -839,27 +839,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.allesoverseks.be', 'https://www.telegraaf.nl', 'https://sense.info']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'allesoverseks.be', 'https://www.allesoverseks.be', 'https://www.telegraaf.nl', 'Sense.info', 'https://sense.info']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://www.klimaat.be', 'https://ec.europa.eu', 'https://www.hier.nu', 'https://www.knaw.nl', 'https://www.ce.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://milieudefensie.nl']</t>
+          <t>['https://www.wur.nl', 'https://www.rijksoverheid.nl', 'Klimaat.be', 'https://www.klimaat.be', 'https://ec.europa.eu', 'https://www.hier.nu', 'https://www.knaw.nl', 'https://www.ce.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://milieudefensie.nl']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['https://t.co/Mx5nfk960i"', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['https://www.nvkp.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://www.umcutrecht.nl']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'https://www.rijksoverheid.nl', 'https://www.europa-nu.nl']</t>
+          <t>['https://nl.wikipedia.org', 'politie.nl', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.europa-nu.nl']</t>
         </is>
       </c>
     </row>
@@ -869,27 +869,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.allesoverseks.be', 'https://www.telegraaf.nl', 'https://sense.info']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'allesoverseks.be', 'https://www.allesoverseks.be', 'https://www.telegraaf.nl', 'Sense.info', 'https://sense.info']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.hier.nu', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['https://t.co/Mx5nfk960i"', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://nos.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nrc.nl', 'https://www.omroepbrabant.nl']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.umcutrecht.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.volkskrant.nl', 'https://www.nrc.nl', 'https://www.scientias.nl', 'https://dekennisvannu.nl']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl']</t>
+          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'politie.nl', 'https://www.politie.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.europa-nu.nl', 'https://www.socialevraagstukken.nl']</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -959,27 +959,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'https://www.allesoverseks.be', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://www.thuisarts.nl', 'https://fiom.nl', 'allesoverseks.be', 'https://www.allesoverseks.be', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.wur.nl', 'https://www.rijksoverheid.nl', 'https://www.klimaat.be', 'https://ec.europa.eu', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'https://www.lne.be']</t>
+          <t>['https://www.wur.nl', 'https://www.rijksoverheid.nl', 'Klimaat.be', 'https://www.klimaat.be', 'https://ec.europa.eu', 'https://www.hier.nu', 'https://www.ce.nl', 'https://www.knaw.nl', 'https://www.climategate.nl', 'https://www.urgenda.nl', 'LNE.be', 'https://www.lne.be', 'www.klimaat.be']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://www.rtlnieuws.nl', 'https://eenvandaag.avrotros.nl', 'https://www.ed.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.nu.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://www.rtlnieuws.nl', 'https://eenvandaag.avrotros.nl', 'https://www.ed.nl', 'houvanarnhem.nl']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['https://www.nvkp.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.volkskrant.nl', 'https://www.umcutrecht.nl', 'https://mens-en-gezondheid.infonu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.volkskrant.nl', 'https://www.umcutrecht.nl', 'https://mens-en-gezondheid.infonu.nl']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'https://www.politie.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl', 'https://europadecentraal.nl']</t>
+          <t>['https://nl.wikipedia.org', 'https://www.volkskrant.nl', 'politie.nl', 'https://www.politie.nl', 'https://jalta.nl', 'https://decorrespondent.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.socialevraagstukken.nl', 'https://www.europa-nu.nl', 'ind.nl', 'https://europadecentraal.nl']</t>
         </is>
       </c>
     </row>
@@ -994,22 +994,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.hier.nu', 'https://www.clo.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.urgenda.nl', 'https://www.climategate.nl', 'https://milieudefensie.nl', 'https://www.hier.nu', 'https://www.clo.nl']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['https://www.ad.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://eenvandaag.avrotros.nl', 'https://www.omroepbrabant.nl', 'https://www.nu.nl', 'https://www.ed.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://eenvandaag.avrotros.nl', 'https://www.omroepbrabant.nl', 'https://www.nu.nl', 'https://www.ed.nl']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.umcutrecht.nl', 'https://www.ggdreisvaccinaties.nl', 'https://dekennisvannu.nl']</t>
+          <t>['Rijksvaccinatieprogramma.nl', 'https://rijksvaccinatieprogramma.nl', 'https://www.nvkp.nl', 'WantToKnow.nl', 'https://www.wanttoknow.nl', 'https://stichtingvaccinvrij.nl', 'Thuisvaccinatie.nl', 'https://www.thuisvaccinatie.nl', 'https://www.scientias.nl', 'https://www.nrc.nl', 'https://www.umcutrecht.nl', 'https://www.ggdreisvaccinaties.nl', 'https://dekennisvannu.nl']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://www.amnesty.nl', 'https://europadecentraal.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl']</t>
+          <t>['https://nl.wikipedia.org', 'politie.nl', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://www.amnesty.nl', 'https://europadecentraal.nl', 'https://decorrespondent.nl', 'https://www.socialevraagstukken.nl']</t>
         </is>
       </c>
     </row>
@@ -1019,27 +1019,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['https://www.rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'https://www.schreeuwomleven.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.bloemenhove.nl', 'https://www.bloemenhove.nl', 'https://www.thuisarts.nl', 'https://www.trouw.nl', 'https://www.gezondheidsplein.nl', 'https://fiom.nl', 'https://www.telegraaf.nl', 'https://www.telegraaf.nl', 'https://www.schreeuwomleven.nl']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['https://www.ce.nl', 'https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'https://www.klimaat.be', 'https://www.urgenda.nl', 'https://milieudefensie.nl', 'https://www.climategate.nl', 'https://www.hier.nu', 'https://www.clo.nl']</t>
+          <t>['https://www.rijksoverheid.nl', 'https://www.wur.nl', 'https://www.ce.nl', 'https://ec.europa.eu', 'Klimaat.be', 'https://www.klimaat.be', 'https://www.urgenda.nl', 'https://milieudefensie.nl', 'https://www.climategate.nl', 'https://www.hier.nu', 'https://www.clo.nl']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['https://www.ad.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nu.nl', 'https://www.destentor.nl', 'https://www.ed.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nu.nl', 'https://www.destentor.nl', 'https://www.ed.nl']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['https://www.ad.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nu.nl', 'https://www.destentor.nl', 'https://www.ed.nl']</t>
+          <t>['AD.nl', 'https://www.ad.nl', 'https://www.ad.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl', 'https://www.lc.nl', 'https://www.nrc.nl', 'https://eenvandaag.avrotros.nl', 'https://www.nu.nl', 'https://www.destentor.nl', 'https://www.ed.nl']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['https://nl.wikipedia.org', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://decorrespondent.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://www.socialevraagstukken.nl']</t>
+          <t>['https://nl.wikipedia.org', 'politie.nl', 'https://www.politie.nl', 'https://www.volkskrant.nl', 'Rijksoverheid.nl', 'https://www.rijksoverheid.nl', 'https://jalta.nl', 'https://www.europa-nu.nl', 'https://decorrespondent.nl', 'https://europadecentraal.nl', 'https://www.amnesty.nl', 'https://www.socialevraagstukken.nl']</t>
         </is>
       </c>
     </row>
